--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -423,19 +423,19 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s"/>
+      <x:c r="F2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="F3" s="1" t="s"/>
+      <x:c r="F3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="F5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="F6" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -470,7 +470,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s"/>
+      <x:c r="F2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
@@ -481,7 +481,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
@@ -492,7 +492,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="F6" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -528,7 +528,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s"/>
+      <x:c r="F2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
@@ -539,7 +539,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
@@ -550,13 +550,13 @@
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="F6" s="1"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s"/>
+      <x:c r="F8" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -608,29 +608,29 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="F2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="F3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="B4" s="1"/>
+      <x:c r="D4" s="1"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="B5" s="1"/>
+      <x:c r="D5" s="1"/>
+      <x:c r="F5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="B6" s="1"/>
+      <x:c r="D6" s="1"/>
+      <x:c r="F6" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -681,29 +681,29 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="F2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="D3" s="1"/>
+      <x:c r="F3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="B4" s="1"/>
+      <x:c r="D4" s="1"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="B5" s="1"/>
+      <x:c r="D5" s="1"/>
+      <x:c r="F5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="B6" s="1"/>
+      <x:c r="D6" s="1"/>
+      <x:c r="F6" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>test value</x:t>
   </x:si>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -6,11 +6,11 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="original" sheetId="2" r:id="rId2"/>
-    <x:sheet name="From a Row" sheetId="3" r:id="rId3"/>
-    <x:sheet name="From a Range" sheetId="4" r:id="rId4"/>
-    <x:sheet name="From a Column to Column" sheetId="5" r:id="rId5"/>
-    <x:sheet name="From a Range to Column" sheetId="6" r:id="rId6"/>
+    <x:sheet name="original" sheetId="1" r:id="rId2"/>
+    <x:sheet name="From a Row" sheetId="2" r:id="rId3"/>
+    <x:sheet name="From a Range" sheetId="3" r:id="rId4"/>
+    <x:sheet name="From a Column to Column" sheetId="4" r:id="rId5"/>
+    <x:sheet name="From a Range to Column" sheetId="5" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
